--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiara Zamora\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DFD09C8-7B46-42DD-97FE-27D1A9632418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36113B02-9745-E647-BA52-4059F5176794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>Argentina</t>
   </si>
@@ -171,12 +165,6 @@
     <t>ROWLEY, Keith</t>
   </si>
   <si>
-    <t>Sudamérica</t>
-  </si>
-  <si>
-    <t>Centroamérica</t>
-  </si>
-  <si>
     <t>Caribe</t>
   </si>
   <si>
@@ -195,93 +183,15 @@
     <t>País</t>
   </si>
   <si>
-    <t>Presidente(a)</t>
-  </si>
-  <si>
     <t>Región</t>
   </si>
   <si>
-    <t>@alferdez</t>
-  </si>
-  <si>
-    <t>@JeanineAnez</t>
-  </si>
-  <si>
-    <t>@jairbolsonaro</t>
-  </si>
-  <si>
-    <t>@sebastianpinera</t>
-  </si>
-  <si>
-    <t>@IvanDuque</t>
-  </si>
-  <si>
-    <t>@Lenin</t>
-  </si>
-  <si>
-    <t>@MaritoAbdo</t>
-  </si>
-  <si>
-    <t>@MartinVizcarraC</t>
-  </si>
-  <si>
     <t>SANTOKHI, Chan</t>
   </si>
   <si>
-    <t>@LuisLacallePou</t>
-  </si>
-  <si>
-    <t>@NicolasMaduro</t>
-  </si>
-  <si>
-    <t>@lopezobrador_</t>
-  </si>
-  <si>
-    <t>@CarlosAlvQ</t>
-  </si>
-  <si>
-    <t>@nayibbukele</t>
-  </si>
-  <si>
-    <t>@DrGiammattei</t>
-  </si>
-  <si>
-    <t>@JuanOrlandoH</t>
-  </si>
-  <si>
-    <t>@NitoCortizo</t>
-  </si>
-  <si>
-    <t>@gastonbrowne</t>
-  </si>
-  <si>
-    <t>@minnis_dr</t>
-  </si>
-  <si>
-    <t>@miaamormottley</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>@SkerritR</t>
-  </si>
-  <si>
-    <t>@DaniloMedina</t>
-  </si>
-  <si>
-    <t>@moisejovenel</t>
-  </si>
-  <si>
-    <t>@AndrewHolnessJM</t>
-  </si>
-  <si>
-    <t>@allenmchastanet</t>
-  </si>
-  <si>
-    <t>@ComradeRalph</t>
-  </si>
-  <si>
     <t>ABDO BENITEZ, Mario</t>
   </si>
   <si>
@@ -327,7 +237,130 @@
     <t>México</t>
   </si>
   <si>
-    <t>@DiazCanelB</t>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>TRUDEAU, Justin</t>
+  </si>
+  <si>
+    <t>NorthAmerica</t>
+  </si>
+  <si>
+    <t>CentralAmerica</t>
+  </si>
+  <si>
+    <t>SouthAmerica</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>TRUMP, Donald</t>
+  </si>
+  <si>
+    <t>realDonaldTrump</t>
+  </si>
+  <si>
+    <t>alferdez</t>
+  </si>
+  <si>
+    <t>JeanineAnez</t>
+  </si>
+  <si>
+    <t>jairbolsonaro</t>
+  </si>
+  <si>
+    <t>sebastianpinera</t>
+  </si>
+  <si>
+    <t>IvanDuque</t>
+  </si>
+  <si>
+    <t>Lenin</t>
+  </si>
+  <si>
+    <t>MaritoAbdo</t>
+  </si>
+  <si>
+    <t>MartinVizcarraC</t>
+  </si>
+  <si>
+    <t>LuisLacallePou</t>
+  </si>
+  <si>
+    <t>NicolasMaduro</t>
+  </si>
+  <si>
+    <t>lopezobrador_</t>
+  </si>
+  <si>
+    <t>CarlosAlvQ</t>
+  </si>
+  <si>
+    <t>nayibbukele</t>
+  </si>
+  <si>
+    <t>DrGiammattei</t>
+  </si>
+  <si>
+    <t>JuanOrlandoH</t>
+  </si>
+  <si>
+    <t>NitoCortizo</t>
+  </si>
+  <si>
+    <t>gastonbrowne</t>
+  </si>
+  <si>
+    <t>minnis_dr</t>
+  </si>
+  <si>
+    <t>miaamormottley</t>
+  </si>
+  <si>
+    <t>DiazCanelB</t>
+  </si>
+  <si>
+    <t>SkerritR</t>
+  </si>
+  <si>
+    <t>DaniloMedina</t>
+  </si>
+  <si>
+    <t>moisejovenel</t>
+  </si>
+  <si>
+    <t>AndrewHolnessJM</t>
+  </si>
+  <si>
+    <t>allenmchastanet</t>
+  </si>
+  <si>
+    <t>ComradeRalph</t>
+  </si>
+  <si>
+    <t>JustinTrudeau</t>
+  </si>
+  <si>
+    <t>PresDGranger</t>
+  </si>
+  <si>
+    <t>BarrowDean</t>
+  </si>
+  <si>
+    <t>DanielOrtegasa</t>
+  </si>
+  <si>
+    <t>pmharriskn</t>
+  </si>
+  <si>
+    <t>DrKeithRowley</t>
+  </si>
+  <si>
+    <t>chansantokhi</t>
   </si>
 </sst>
 </file>
@@ -377,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -400,12 +433,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -421,6 +465,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -736,77 +782,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="32.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="2" width="32.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -814,13 +860,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -828,13 +874,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -842,13 +888,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -856,51 +902,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -908,13 +958,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -922,39 +972,41 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -962,13 +1014,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -976,13 +1028,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -990,13 +1042,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1004,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1018,39 +1070,41 @@
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1058,13 +1112,13 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
@@ -1072,27 +1126,27 @@
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -1100,53 +1154,53 @@
         <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -1154,63 +1208,95 @@
         <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36113B02-9745-E647-BA52-4059F5176794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2975556-9279-4744-A85E-DA9BDD3DD71C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Caribe</t>
   </si>
   <si>
-    <t>Twitter</t>
-  </si>
-  <si>
     <t>FERNÁNDEZ, Alberto</t>
   </si>
   <si>
@@ -180,12 +177,6 @@
     <t>VIZCARRA, Martín</t>
   </si>
   <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Región</t>
-  </si>
-  <si>
     <t>SANTOKHI, Chan</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>México</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -361,6 +349,18 @@
   </si>
   <si>
     <t>chansantokhi</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>twitter</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,16 +798,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -815,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -829,27 +829,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -860,10 +860,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -874,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -888,10 +888,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -913,41 +913,41 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -958,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -972,38 +972,38 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1014,10 +1014,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1028,10 +1028,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1042,10 +1042,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1056,10 +1056,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1070,29 +1070,29 @@
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>29</v>
@@ -1101,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1129,12 +1129,12 @@
         <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
@@ -1143,7 +1143,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1157,12 +1157,12 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
@@ -1171,12 +1171,12 @@
         <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>38</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>39</v>
@@ -1197,7 +1197,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1211,12 +1211,12 @@
         <v>46</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
@@ -1225,12 +1225,12 @@
         <v>46</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>43</v>
@@ -1239,12 +1239,12 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
@@ -1253,12 +1253,12 @@
         <v>46</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>45</v>
@@ -1267,35 +1267,35 @@
         <v>46</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2975556-9279-4744-A85E-DA9BDD3DD71C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA04405-4AB1-6647-8B38-19283DE775A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>Argentina</t>
   </si>
@@ -141,9 +141,6 @@
     <t>MEDINA, Danilo</t>
   </si>
   <si>
-    <t>MITCHELL, Keith</t>
-  </si>
-  <si>
     <t>MOÏSE, Jovenel</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
   </si>
   <si>
     <t>Haití</t>
-  </si>
-  <si>
-    <t>Granada</t>
   </si>
   <si>
     <t>Antigua y Barbuda</t>
@@ -782,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,16 +792,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -815,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -829,27 +823,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -860,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -874,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -888,10 +882,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -902,10 +896,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -913,41 +907,41 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -958,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -972,38 +966,38 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1014,10 +1008,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1028,10 +1022,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1042,10 +1036,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1056,10 +1050,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1070,38 +1064,38 @@
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1112,10 +1106,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1126,24 +1120,24 @@
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1154,148 +1148,136 @@
         <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA04405-4AB1-6647-8B38-19283DE775A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFCE95-5F0A-D443-B0B1-A01D131CADBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Argentina</t>
   </si>
@@ -54,12 +54,6 @@
     <t>MORENO, Lenín</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GRANGER, David</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>LÓPEZ OBRADOR, Andrés Manuel</t>
   </si>
   <si>
-    <t>BARROW, Dean</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -114,54 +105,12 @@
     <t>CORTIZO, Laurentino</t>
   </si>
   <si>
-    <t>BROWNE, Gaston</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>MINNIS, Hubert</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>MOTTLEY, Mia</t>
-  </si>
-  <si>
     <t>DÍAZ-CANEL, Miguel</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>SKERRIT, Roosevelt</t>
-  </si>
-  <si>
     <t>MEDINA, Danilo</t>
   </si>
   <si>
-    <t>MOÏSE, Jovenel</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>HOLNESS, Andrew</t>
-  </si>
-  <si>
-    <t>HARRIS, Timothy</t>
-  </si>
-  <si>
-    <t>CHASTANET, Allen</t>
-  </si>
-  <si>
-    <t>GONSALVES, Ralph E.</t>
-  </si>
-  <si>
-    <t>ROWLEY, Keith</t>
-  </si>
-  <si>
     <t>Caribe</t>
   </si>
   <si>
@@ -174,9 +123,6 @@
     <t>VIZCARRA, Martín</t>
   </si>
   <si>
-    <t>SANTOKHI, Chan</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -189,36 +135,12 @@
     <t>Perú</t>
   </si>
   <si>
-    <t>Surinam</t>
-  </si>
-  <si>
     <t>República Dominicana</t>
   </si>
   <si>
-    <t>Trinidad y Tobago</t>
-  </si>
-  <si>
-    <t>San Vicente y las Granadinas</t>
-  </si>
-  <si>
-    <t>Santa Lucía</t>
-  </si>
-  <si>
-    <t>San Cristóbal y Nieves</t>
-  </si>
-  <si>
-    <t>Haití</t>
-  </si>
-  <si>
-    <t>Antigua y Barbuda</t>
-  </si>
-  <si>
     <t>Panamá</t>
   </si>
   <si>
-    <t>Belice</t>
-  </si>
-  <si>
     <t>México</t>
   </si>
   <si>
@@ -294,55 +216,16 @@
     <t>NitoCortizo</t>
   </si>
   <si>
-    <t>gastonbrowne</t>
-  </si>
-  <si>
-    <t>minnis_dr</t>
-  </si>
-  <si>
-    <t>miaamormottley</t>
-  </si>
-  <si>
     <t>DiazCanelB</t>
   </si>
   <si>
-    <t>SkerritR</t>
-  </si>
-  <si>
     <t>DaniloMedina</t>
   </si>
   <si>
-    <t>moisejovenel</t>
-  </si>
-  <si>
-    <t>AndrewHolnessJM</t>
-  </si>
-  <si>
-    <t>allenmchastanet</t>
-  </si>
-  <si>
-    <t>ComradeRalph</t>
-  </si>
-  <si>
     <t>JustinTrudeau</t>
   </si>
   <si>
-    <t>PresDGranger</t>
-  </si>
-  <si>
-    <t>BarrowDean</t>
-  </si>
-  <si>
     <t>DanielOrtegasa</t>
-  </si>
-  <si>
-    <t>pmharriskn</t>
-  </si>
-  <si>
-    <t>DrKeithRowley</t>
-  </si>
-  <si>
-    <t>chansantokhi</t>
   </si>
   <si>
     <t>country</t>
@@ -776,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A21" sqref="A21:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,16 +675,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -809,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -823,27 +706,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -854,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -868,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -882,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -893,391 +776,209 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>72</v>
+      <c r="D22" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFCE95-5F0A-D443-B0B1-A01D131CADBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21098D-E588-8247-874C-6A8E8639FA1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Argentina</t>
   </si>
@@ -72,48 +72,6 @@
     <t>LÓPEZ OBRADOR, Andrés Manuel</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>ALVARADO, Carlos</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>BUKELE, Nayib</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>GIAMMATTEI, Alejandro</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>HERNÁNDEZ, Juan Orlando</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>ORTEGA, Daniel</t>
-  </si>
-  <si>
-    <t>CORTIZO, Laurentino</t>
-  </si>
-  <si>
-    <t>DÍAZ-CANEL, Miguel</t>
-  </si>
-  <si>
-    <t>MEDINA, Danilo</t>
-  </si>
-  <si>
-    <t>Caribe</t>
-  </si>
-  <si>
     <t>FERNÁNDEZ, Alberto</t>
   </si>
   <si>
@@ -123,9 +81,6 @@
     <t>VIZCARRA, Martín</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>ABDO BENITEZ, Mario</t>
   </si>
   <si>
@@ -135,12 +90,6 @@
     <t>Perú</t>
   </si>
   <si>
-    <t>República Dominicana</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
     <t>México</t>
   </si>
   <si>
@@ -153,9 +102,6 @@
     <t>NorthAmerica</t>
   </si>
   <si>
-    <t>CentralAmerica</t>
-  </si>
-  <si>
     <t>SouthAmerica</t>
   </si>
   <si>
@@ -201,31 +147,7 @@
     <t>lopezobrador_</t>
   </si>
   <si>
-    <t>CarlosAlvQ</t>
-  </si>
-  <si>
-    <t>nayibbukele</t>
-  </si>
-  <si>
-    <t>DrGiammattei</t>
-  </si>
-  <si>
-    <t>JuanOrlandoH</t>
-  </si>
-  <si>
-    <t>NitoCortizo</t>
-  </si>
-  <si>
-    <t>DiazCanelB</t>
-  </si>
-  <si>
-    <t>DaniloMedina</t>
-  </si>
-  <si>
     <t>JustinTrudeau</t>
-  </si>
-  <si>
-    <t>DanielOrtegasa</t>
   </si>
   <si>
     <t>country</t>
@@ -659,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD26"/>
+      <selection activeCell="A13" sqref="A13:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,16 +597,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -692,13 +614,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -706,27 +628,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -737,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -751,10 +673,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -765,10 +687,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -776,27 +698,27 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -807,10 +729,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -821,164 +743,52 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21098D-E588-8247-874C-6A8E8639FA1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E7ECE0-E85D-8542-AE5F-38647E9E6E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E7ECE0-E85D-8542-AE5F-38647E9E6E41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0EE291-1444-5C4C-812A-AF056673AFF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Argentina</t>
   </si>
@@ -160,6 +160,75 @@
   </si>
   <si>
     <t>twitter</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>ALVARADO, Carlos</t>
+  </si>
+  <si>
+    <t>CentralAmerica</t>
+  </si>
+  <si>
+    <t>CarlosAlvQ</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>BUKELE, Nayib</t>
+  </si>
+  <si>
+    <t>nayibbukele</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GIAMMATTEI, Alejandro</t>
+  </si>
+  <si>
+    <t>DrGiammattei</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HERNÁNDEZ, Juan Orlando</t>
+  </si>
+  <si>
+    <t>JuanOrlandoH</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>ORTEGA, Daniel</t>
+  </si>
+  <si>
+    <t>DanielOrtegasa</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>CORTIZO, Laurentino</t>
+  </si>
+  <si>
+    <t>NitoCortizo</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>DÍAZ-CANEL, Miguel</t>
+  </si>
+  <si>
+    <t>Caribe</t>
+  </si>
+  <si>
+    <t>DiazCanelB</t>
   </si>
 </sst>
 </file>
@@ -581,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,6 +860,104 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0EE291-1444-5C4C-812A-AF056673AFF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58DB41-1A83-F147-A093-7DD387470C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>Argentina</t>
   </si>
@@ -229,6 +229,132 @@
   </si>
   <si>
     <t>DiazCanelB</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GRANGER, David</t>
+  </si>
+  <si>
+    <t>PresDGranger</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>SANTOKHI, Chan</t>
+  </si>
+  <si>
+    <t>chansantokhi</t>
+  </si>
+  <si>
+    <t>Belice</t>
+  </si>
+  <si>
+    <t>BARROW, Dean</t>
+  </si>
+  <si>
+    <t>BarrowDean</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>BROWNE, Gaston</t>
+  </si>
+  <si>
+    <t>gastonbrowne</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>MINNIS, Hubert</t>
+  </si>
+  <si>
+    <t>minnis_dr</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>MOTTLEY, Mia</t>
+  </si>
+  <si>
+    <t>miaamormottley</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>SKERRIT, Roosevelt</t>
+  </si>
+  <si>
+    <t>SkerritR</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>MEDINA, Danilo</t>
+  </si>
+  <si>
+    <t>DaniloMedina</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>MOÏSE, Jovenel</t>
+  </si>
+  <si>
+    <t>moisejovenel</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>HOLNESS, Andrew</t>
+  </si>
+  <si>
+    <t>AndrewHolnessJM</t>
+  </si>
+  <si>
+    <t>San Cristóbal y Nieves</t>
+  </si>
+  <si>
+    <t>HARRIS, Timothy</t>
+  </si>
+  <si>
+    <t>pmharriskn</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>CHASTANET, Allen</t>
+  </si>
+  <si>
+    <t>allenmchastanet</t>
+  </si>
+  <si>
+    <t>San Vicente y las Granadinas</t>
+  </si>
+  <si>
+    <t>GONSALVES, Ralph E.</t>
+  </si>
+  <si>
+    <t>ComradeRalph</t>
+  </si>
+  <si>
+    <t>Trinidad y Tobago</t>
+  </si>
+  <si>
+    <t>ROWLEY, Keith</t>
+  </si>
+  <si>
+    <t>DrKeithRowley</t>
   </si>
 </sst>
 </file>
@@ -650,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,198 +890,394 @@
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>28</v>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58DB41-1A83-F147-A093-7DD387470C5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89D0CE-2EFE-1E4E-A034-238397E512DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -779,505 +779,505 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D35"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="32.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89D0CE-2EFE-1E4E-A034-238397E512DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F92D2-6B63-D141-8E76-CB874C3CAD5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -381,7 +381,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -443,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -459,8 +459,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,7 +786,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,69 +813,69 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
@@ -876,27 +883,27 @@
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -904,41 +911,41 @@
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -946,100 +953,100 @@
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1058,41 +1065,41 @@
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -1100,55 +1107,55 @@
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>66</v>
@@ -1156,27 +1163,27 @@
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>66</v>
@@ -1184,27 +1191,27 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>66</v>
@@ -1212,75 +1219,78 @@
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D37">
+    <sortCondition descending="1" ref="C2:C37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/PresidentsTwitter.xlsx
+++ b/PresidentsTwitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/Book Visual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F92D2-6B63-D141-8E76-CB874C3CAD5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D802F1-B55D-D947-A130-E06397B5B469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{EFA6CB51-F895-4700-96CE-C4082E596FD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
   <si>
     <t>Argentina</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>DrKeithRowley</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -783,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9AAB2-5EB2-470E-8F63-66522A35F399}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,7 +806,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -810,8 +819,11 @@
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -824,8 +836,11 @@
       <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -838,8 +853,11 @@
       <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -852,8 +870,11 @@
       <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -866,8 +887,11 @@
       <c r="D5" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>73</v>
       </c>
@@ -880,8 +904,11 @@
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -894,8 +921,11 @@
       <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -908,8 +938,11 @@
       <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -922,8 +955,11 @@
       <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -936,8 +972,11 @@
       <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -950,8 +989,11 @@
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -964,8 +1006,11 @@
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>82</v>
       </c>
@@ -978,8 +1023,11 @@
       <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
@@ -992,8 +1040,11 @@
       <c r="D14" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -1006,8 +1057,11 @@
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -1020,8 +1074,11 @@
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1034,8 +1091,11 @@
       <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1048,8 +1108,11 @@
       <c r="D18" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
@@ -1062,8 +1125,11 @@
       <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>100</v>
       </c>
@@ -1076,8 +1142,11 @@
       <c r="D20" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1090,8 +1159,11 @@
       <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>106</v>
       </c>
@@ -1104,8 +1176,11 @@
       <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -1118,8 +1193,11 @@
       <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1132,8 +1210,11 @@
       <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1146,8 +1227,11 @@
       <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1160,8 +1244,11 @@
       <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
@@ -1174,8 +1261,11 @@
       <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>103</v>
       </c>
@@ -1188,8 +1278,11 @@
       <c r="D28" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -1202,8 +1295,11 @@
       <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
@@ -1216,8 +1312,11 @@
       <c r="D30" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1230,8 +1329,11 @@
       <c r="D31" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -1244,8 +1346,11 @@
       <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -1258,8 +1363,11 @@
       <c r="D33" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
@@ -1272,8 +1380,11 @@
       <c r="D34" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
@@ -1285,6 +1396,9 @@
       </c>
       <c r="D35" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
